--- a/tes.xlsx
+++ b/tes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>acar</t>
+  </si>
+  <si>
+    <t>nasgor</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +63,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +117,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +152,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +360,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tes.xlsx
+++ b/tes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,20 +13,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>acar</t>
-  </si>
-  <si>
-    <t>nasgor</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,14 +52,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -117,7 +98,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -152,7 +133,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,24 +341,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tes.xlsx
+++ b/tes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>tes ke dua x</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +32,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,14 +58,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +121,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +156,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +364,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tes.xlsx
+++ b/tes.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>tes ke dua x</t>
+  </si>
+  <si>
+    <t>tes ke tiga x</t>
   </si>
 </sst>
 </file>
@@ -32,7 +35,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -42,6 +45,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -58,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D3"/>
+  <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,6 +391,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tes.xlsx
+++ b/tes.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tes.xlsx
+++ b/tes.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>tes ke dua x</t>
   </si>
   <si>
     <t>tes ke tiga x</t>
+  </si>
+  <si>
+    <t>tes ke empat x</t>
   </si>
 </sst>
 </file>
@@ -35,7 +38,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +57,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -67,10 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D10"/>
+  <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,6 +409,14 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tes.xlsx
+++ b/tes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>tes ke dua x</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>tes ke empat x</t>
+  </si>
+  <si>
+    <t>tes ke lima x</t>
   </si>
 </sst>
 </file>
@@ -38,7 +41,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,6 +63,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -76,11 +85,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D16"/>
+  <dimension ref="A3:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +427,14 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tes.xlsx
+++ b/tes.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>tes ke dua x</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>tes ke tiga x</t>
   </si>
@@ -41,18 +38,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -85,12 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,45 +385,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tes.xlsx
+++ b/tes.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>tes ke tiga x</t>
-  </si>
-  <si>
-    <t>tes ke empat x</t>
-  </si>
-  <si>
-    <t>tes ke lima x</t>
+    <t>tes ke dua x</t>
   </si>
 </sst>
 </file>
@@ -38,7 +32,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -47,19 +41,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -76,11 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,37 +365,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D10"/>
+  <dimension ref="A3:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tes.xlsx
+++ b/tes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>tes ke dua x</t>
   </si>
@@ -32,7 +32,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -42,6 +42,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -58,9 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D3"/>
+  <dimension ref="A3:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,6 +388,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tes.xlsx
+++ b/tes.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>tes ke dua x</t>
+  </si>
+  <si>
+    <t>harus'y gak ada</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
   <dimension ref="A3:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,6 +390,11 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F11" s="2" t="s">
